--- a/ZSS/resources/Purva Vihar/FY2014-15/05-May-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/05-May-2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -613,7 +613,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">      /05/14</t>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1040,45 @@
   </cellStyles>
   <dxfs count="38">
     <dxf>
+      <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1068,27 +1110,6 @@
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -1135,24 +1156,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1209,62 +1212,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="37">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="37">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="36"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="35"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="22"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="21"/>
+    <tableColumn id="8" name="Date" dataDxfId="28"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="27"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="20">
-  <tableColumns count="12">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="19"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="18"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="26">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="25"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
+    <tableColumn id="8" name="Date" dataDxfId="17" totalsRowDxfId="0"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="16"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="15">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1558,17 +1563,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
@@ -1576,11 +1581,11 @@
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1594,7 +1599,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1613,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1621,7 +1626,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +1640,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -1645,7 +1650,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -1659,7 +1664,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1696,8 +1701,11 @@
       <c r="L8" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1724,12 +1732,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>84</v>
+      <c r="I9" s="19">
+        <v>41779</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1756,12 +1767,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>84</v>
+      <c r="I10" s="19">
+        <v>41774</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1788,12 +1802,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>84</v>
+      <c r="I11" s="19">
+        <v>41772</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1820,12 +1837,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>84</v>
+      <c r="I12" s="19">
+        <v>41772</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1852,13 +1872,16 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>84</v>
+      <c r="I13" s="19">
+        <v>41772</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1885,12 +1908,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>84</v>
+      <c r="I14" s="19">
+        <v>41773</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1917,15 +1943,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>84</v>
+      <c r="I15" s="19">
+        <v>41760</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1952,12 +1981,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>84</v>
+      <c r="I16" s="19">
+        <v>41772</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1984,12 +2016,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>84</v>
+      <c r="I17" s="19">
+        <v>41772</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2016,12 +2051,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>84</v>
+      <c r="I18" s="19">
+        <v>41773</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2048,12 +2086,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>84</v>
+      <c r="I19" s="19">
+        <v>41772</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2061,14 +2102,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2078,14 +2119,17 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>450</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>84</v>
+        <v>430</v>
+      </c>
+      <c r="I20" s="19">
+        <v>41760</v>
       </c>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2112,15 +2156,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>84</v>
+      <c r="I21" s="19">
+        <v>41760</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2147,12 +2194,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>84</v>
+      <c r="I22" s="19">
+        <v>41776</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2179,12 +2229,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>84</v>
+      <c r="I23" s="19">
+        <v>41772</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2211,15 +2264,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>84</v>
+      <c r="I24" s="19">
+        <v>41760</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2246,12 +2302,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1200</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>84</v>
+      <c r="I25" s="19">
+        <v>41785</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2278,12 +2337,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-300</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>84</v>
+      <c r="I26" s="19">
+        <v>41773</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2293,7 +2355,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>13261</v>
+        <v>13241</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2301,7 +2363,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>17561</v>
+        <v>17541</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2313,10 +2375,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>6870</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2394,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2346,7 +2408,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2366,7 +2428,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2412,8 +2474,8 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2494,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2446,7 +2508,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2460,7 +2522,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2473,7 +2535,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2487,7 +2549,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -2497,7 +2559,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>82</v>
       </c>
@@ -2511,7 +2573,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2548,8 +2610,11 @@
       <c r="L8" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2576,12 +2641,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>84</v>
+      <c r="I9" s="19">
+        <v>41773</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2608,12 +2676,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>84</v>
+      <c r="I10" s="19">
+        <v>41772</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2640,12 +2711,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>84</v>
+      <c r="I11" s="19">
+        <v>41772</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2672,12 +2746,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>84</v>
+      <c r="I12" s="19">
+        <v>41772</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2704,12 +2781,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>410</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>84</v>
+      <c r="I13" s="19">
+        <v>41778</v>
       </c>
       <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2736,12 +2816,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2130</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>84</v>
+      <c r="I14" s="19">
+        <v>41777</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2768,12 +2851,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>84</v>
+      <c r="I15" s="19">
+        <v>41777</v>
       </c>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2800,10 +2886,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>84</v>
+      <c r="I16" s="19">
+        <v>41773</v>
       </c>
       <c r="J16" s="22"/>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -2832,10 +2921,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>84</v>
+      <c r="I17" s="19">
+        <v>41772</v>
       </c>
       <c r="J17" s="22"/>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -2864,10 +2956,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>84</v>
+      <c r="I18" s="19">
+        <v>41775</v>
       </c>
       <c r="J18" s="22"/>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -2896,10 +2991,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>84</v>
+      <c r="I19" s="19">
+        <v>41772</v>
       </c>
       <c r="J19" s="22"/>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -2928,10 +3026,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>84</v>
+      <c r="I20" s="19">
+        <v>41772</v>
       </c>
       <c r="J20" s="22"/>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
       <c r="P20" s="12"/>
       <c r="S20" s="12"/>
     </row>
@@ -2962,10 +3063,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>620</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>84</v>
+      <c r="I21" s="19">
+        <v>41790</v>
       </c>
       <c r="J21" s="22"/>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
       <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2995,10 +3099,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>84</v>
+      <c r="I22" s="19">
+        <v>41775</v>
       </c>
       <c r="J22" s="22"/>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3027,10 +3134,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>84</v>
+      <c r="I23" s="19">
+        <v>41772</v>
       </c>
       <c r="J23" s="22"/>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3059,10 +3169,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>750</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>84</v>
+      <c r="I24" s="19">
+        <v>41790</v>
       </c>
       <c r="J24" s="22"/>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3091,10 +3204,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>84</v>
+      <c r="I25" s="19">
+        <v>41773</v>
       </c>
       <c r="J25" s="22"/>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -3123,10 +3239,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>84</v>
+      <c r="I26" s="19">
+        <v>41773</v>
       </c>
       <c r="J26" s="22"/>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/ZSS/resources/Purva Vihar/FY2014-15/05-May-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/05-May-2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -613,10 +613,7 @@
     </r>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Cheque</t>
+    <t xml:space="preserve">      /05/14</t>
   </si>
 </sst>
 </file>
@@ -1040,45 +1037,6 @@
   </cellStyles>
   <dxfs count="38">
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1110,6 +1068,27 @@
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -1156,6 +1135,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1212,64 +1209,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="37">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="37">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="36"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="35"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="12"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="28"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="27"/>
+    <tableColumn id="8" name="Date" dataDxfId="22"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="21"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="26">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="24"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="20">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="19"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="18"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="17" totalsRowDxfId="0"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="16"/>
+    <tableColumn id="8" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1563,17 +1558,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
@@ -1581,11 +1576,11 @@
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1594,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1613,7 +1608,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1626,7 +1621,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1640,7 +1635,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -1650,7 +1645,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -1664,7 +1659,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1701,11 +1696,8 @@
       <c r="L8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1732,15 +1724,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19">
-        <v>41779</v>
+      <c r="I9" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1767,15 +1756,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19">
-        <v>41774</v>
+      <c r="I10" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1802,15 +1788,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19">
-        <v>41772</v>
+      <c r="I11" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1837,15 +1820,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <v>41772</v>
+      <c r="I12" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1872,16 +1852,13 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>41772</v>
+      <c r="I13" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1908,15 +1885,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
-        <v>41773</v>
+      <c r="I14" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1943,18 +1917,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I15" s="19">
-        <v>41760</v>
+      <c r="I15" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>79</v>
       </c>
-      <c r="M15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1981,15 +1952,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41772</v>
+      <c r="I16" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -2016,15 +1984,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>41772</v>
+      <c r="I17" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2051,15 +2016,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41773</v>
+      <c r="I18" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2086,15 +2048,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41772</v>
+      <c r="I19" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2102,14 +2061,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2119,17 +2078,14 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>430</v>
-      </c>
-      <c r="I20" s="19">
-        <v>41760</v>
+        <v>450</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2156,18 +2112,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I21" s="19">
-        <v>41760</v>
+      <c r="I21" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>79</v>
       </c>
-      <c r="M21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2194,15 +2147,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19">
-        <v>41776</v>
+      <c r="I22" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2229,15 +2179,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19">
-        <v>41772</v>
+      <c r="I23" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2264,18 +2211,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I24" s="19">
-        <v>41760</v>
+      <c r="I24" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>79</v>
       </c>
-      <c r="M24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2302,15 +2246,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1200</v>
       </c>
-      <c r="I25" s="19">
-        <v>41785</v>
+      <c r="I25" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2337,15 +2278,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-300</v>
       </c>
-      <c r="I26" s="19">
-        <v>41773</v>
+      <c r="I26" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2293,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>13241</v>
+        <v>13261</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2363,7 +2301,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>17541</v>
+        <v>17561</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2375,10 +2313,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>6850</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2394,7 +2332,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2408,7 +2346,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2428,7 +2366,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2474,8 +2412,8 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2432,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2446,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2460,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2535,7 +2473,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2549,7 +2487,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2497,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>82</v>
       </c>
@@ -2573,7 +2511,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2610,11 +2548,8 @@
       <c r="L8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2641,15 +2576,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19">
-        <v>41773</v>
+      <c r="I9" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2676,15 +2608,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <v>41772</v>
+      <c r="I10" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2711,15 +2640,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19">
-        <v>41772</v>
+      <c r="I11" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2746,15 +2672,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19">
-        <v>41772</v>
+      <c r="I12" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2781,15 +2704,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>410</v>
       </c>
-      <c r="I13" s="19">
-        <v>41778</v>
+      <c r="I13" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2816,15 +2736,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2130</v>
       </c>
-      <c r="I14" s="19">
-        <v>41777</v>
+      <c r="I14" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2851,15 +2768,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>41777</v>
+      <c r="I15" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2886,13 +2800,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41773</v>
+      <c r="I16" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -2921,13 +2832,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19">
-        <v>41772</v>
+      <c r="I17" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -2956,13 +2864,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41775</v>
+      <c r="I18" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -2991,13 +2896,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41772</v>
+      <c r="I19" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -3026,13 +2928,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19">
-        <v>41772</v>
+      <c r="I20" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
       <c r="P20" s="12"/>
       <c r="S20" s="12"/>
     </row>
@@ -3063,13 +2962,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>620</v>
       </c>
-      <c r="I21" s="19">
-        <v>41790</v>
+      <c r="I21" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J21" s="22"/>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
       <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -3099,13 +2995,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>41775</v>
+      <c r="I22" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3134,13 +3027,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>41772</v>
+      <c r="I23" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3169,13 +3059,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>750</v>
       </c>
-      <c r="I24" s="19">
-        <v>41790</v>
+      <c r="I24" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3204,13 +3091,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>41773</v>
+      <c r="I25" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -3239,13 +3123,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>41773</v>
+      <c r="I26" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
